--- a/data/trans_bre/P0901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>13.8322610216798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.689336634846121</v>
+        <v>4.689336634846118</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8003530102837088</v>
@@ -649,7 +649,7 @@
         <v>1.112869851853814</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.536459313361385</v>
+        <v>0.5364593133613844</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.538350722817369</v>
+        <v>3.095134880980662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.283150084785444</v>
+        <v>6.641437543154205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.317220419868432</v>
+        <v>6.942557884764786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5714632866709313</v>
+        <v>0.5150099947861853</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1836245871718353</v>
+        <v>0.2059543278238314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3341614491913106</v>
+        <v>0.3710045539985189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4672789171510072</v>
+        <v>0.4379941656083614</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03958986809283153</v>
+        <v>0.04228159396561245</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.19580597650348</v>
+        <v>15.14724827823473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.22109099395489</v>
+        <v>21.07122052674682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.31618422631227</v>
+        <v>20.09942730385367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.00334569296785</v>
+        <v>8.774540668861157</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.8368264019513</v>
+        <v>1.797542271524743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.775649333384081</v>
+        <v>1.938330553895907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.136983111717228</v>
+        <v>2.152989412982197</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.347021697872052</v>
+        <v>1.296201906790164</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.051512053794818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.951098928969111</v>
+        <v>5.951098928969115</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8966530152181795</v>
@@ -749,7 +749,7 @@
         <v>0.9476197124705903</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3282192589725601</v>
+        <v>0.3282192589725603</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.345152529174501</v>
+        <v>4.359269888964014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.499845430164148</v>
+        <v>3.398451452842708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.956480467930017</v>
+        <v>3.744293541623309</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.261394997379298</v>
+        <v>1.241708084014476</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3438138275460377</v>
+        <v>0.3791240159374722</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2379902554448241</v>
+        <v>0.2454994267022703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3617522429055201</v>
+        <v>0.3721834329836898</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05768263120730621</v>
+        <v>0.05464516422817659</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.45742986475739</v>
+        <v>13.18524791401285</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.64242205857651</v>
+        <v>12.60068015978756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.5527499139102</v>
+        <v>12.2135823623951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.67289820343701</v>
+        <v>10.9886983989332</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.694920101601068</v>
+        <v>1.727687177925205</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.383132021773592</v>
+        <v>1.419162103799821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.870787606247654</v>
+        <v>1.819760412877851</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6847146340330944</v>
+        <v>0.7148158058363139</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.592111840627356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.376985378381984</v>
+        <v>4.376985378381989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.238952421821035</v>
@@ -849,7 +849,7 @@
         <v>0.4161516579289625</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3093221957303851</v>
+        <v>0.3093221957303854</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.897364377536812</v>
+        <v>2.898894048099381</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.994434553761088</v>
+        <v>1.12693474578357</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.065591216456822</v>
+        <v>-1.393345501698334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4126780644767766</v>
+        <v>-0.6375239911887243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2816663238103917</v>
+        <v>0.2974100277798544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1219282004578501</v>
+        <v>0.07090108814809838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1178935666727812</v>
+        <v>-0.1542208868484291</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03068354432392649</v>
+        <v>-0.03842669376786582</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.31407930958911</v>
+        <v>12.32713832442324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.00020386291523</v>
+        <v>12.95216751794396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.675591742964146</v>
+        <v>8.166991718614632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.052137137146785</v>
+        <v>8.762265312835252</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.729082122758793</v>
+        <v>2.987009971346535</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.348452297492736</v>
+        <v>1.390073818924438</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.252203158182895</v>
+        <v>1.250521548324499</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7677674880527701</v>
+        <v>0.759358144696643</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>15.49029246987413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.297060935452689</v>
+        <v>6.297060935452691</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.16501396987183</v>
@@ -949,7 +949,7 @@
         <v>0.9104615470358308</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3343856022403132</v>
+        <v>0.3343856022403133</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.990915841877175</v>
+        <v>6.846751093793295</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.49145473058878</v>
+        <v>10.45284326756513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.709674140117976</v>
+        <v>9.484437723651764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.144755332568418</v>
+        <v>0.5020612925519821</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9345934135972185</v>
+        <v>0.8950622424065562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5531051792500502</v>
+        <v>0.5332814321741189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4048977031524227</v>
+        <v>0.4655382415478821</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03391097550673115</v>
+        <v>0.02180056086302797</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.59712306364842</v>
+        <v>15.76325009451673</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.08881554589472</v>
+        <v>23.04559819294064</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.29118766143807</v>
+        <v>22.28234945103686</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.38558387956982</v>
+        <v>12.9527396343874</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.771029227232446</v>
+        <v>4.703054540675967</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.749606612289264</v>
+        <v>1.753617060577441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.494454603404766</v>
+        <v>1.59657197385503</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7666999870605921</v>
+        <v>0.8987921379685105</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.13063195875051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.680532559200254</v>
+        <v>5.680532559200252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6043115792990807</v>
@@ -1049,7 +1049,7 @@
         <v>0.6241501126474589</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8366161747840283</v>
+        <v>0.8366161747840281</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.379865732989594</v>
+        <v>-0.783275291931677</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.083316453015339</v>
+        <v>4.578980596630982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7305587499742652</v>
+        <v>-0.5272836041251271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.613915792687146</v>
+        <v>1.259736113711503</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.161039282744461</v>
+        <v>-0.09787134332488739</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2570164044751587</v>
+        <v>0.2619554971037009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06821867729644486</v>
+        <v>-0.09121341110424849</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1655257779413689</v>
+        <v>0.1238166414704109</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.40271326796307</v>
+        <v>10.99582193580171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.11032789372244</v>
+        <v>19.89442154013976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.43316494763222</v>
+        <v>11.82591952781284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.751455065218234</v>
+        <v>9.542420063014941</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.812035664510588</v>
+        <v>2.159427707688489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.117281859258743</v>
+        <v>2.10995114539145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.002289112201226</v>
+        <v>2.11027339056999</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.032316511794947</v>
+        <v>2.055971104872699</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.731993738063489</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.666289420498687</v>
+        <v>4.666289420498682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7275889760816843</v>
@@ -1149,7 +1149,7 @@
         <v>0.4655328563197739</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3849233288029718</v>
+        <v>0.3849233288029713</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.082009233110841</v>
+        <v>1.441467588569043</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.734553610781099</v>
+        <v>-2.232646044967331</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4605992205494115</v>
+        <v>1.32943778185016</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6207367267470144</v>
+        <v>-0.008838858275626046</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07596898883051013</v>
+        <v>0.1108278871846858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1720796996719809</v>
+        <v>-0.1455265353682428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01938839944808539</v>
+        <v>0.0598560691579265</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03536129196589077</v>
+        <v>-0.006895268326556599</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.23906435910868</v>
+        <v>13.16435141509281</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.00779309178802</v>
+        <v>10.38206501943462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.63829107948701</v>
+        <v>15.17977129702535</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.32613846612511</v>
+        <v>8.813471786709465</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.734477790516526</v>
+        <v>1.953688574652158</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9500851533014274</v>
+        <v>1.000177493513935</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.04358120607347</v>
+        <v>1.134996138674052</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.922926417435724</v>
+        <v>0.8831361113175767</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.985801447481307</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.15826759379705</v>
+        <v>10.15826759379706</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4573796942659523</v>
@@ -1249,7 +1249,7 @@
         <v>0.9130813704741382</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.702649419319739</v>
+        <v>0.7026494193197399</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8391523503699193</v>
+        <v>0.5978852806716226</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.972694571225342</v>
+        <v>2.843146689065335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.86497251783836</v>
+        <v>5.800869906413983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.14798747803342</v>
+        <v>6.416164865448255</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07115465587047697</v>
+        <v>0.05495305630048594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2574788452691362</v>
+        <v>0.2636699681808626</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4264716169322924</v>
+        <v>0.471743541835217</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3557662267126492</v>
+        <v>0.3971279584879893</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.843805923037187</v>
+        <v>7.894302668186874</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.26479057696587</v>
+        <v>10.08296941462558</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.01941252359463</v>
+        <v>13.76915726920863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.16007936838011</v>
+        <v>13.8392035839963</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9936333529231836</v>
+        <v>1.019584566414832</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.322752514603915</v>
+        <v>1.332805164117634</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.523285407020772</v>
+        <v>1.527022077497004</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.143732065682944</v>
+        <v>1.116759686865594</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.687820268789681</v>
+        <v>3.725253011496012</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.602626237721168</v>
+        <v>3.708538347269116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.394216002752018</v>
+        <v>4.489406567521558</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.193540056010696</v>
+        <v>5.23104465772287</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2916936022575219</v>
+        <v>0.299861093879244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2774654361680181</v>
+        <v>0.2701009237427729</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4975255955900984</v>
+        <v>0.5461468347138064</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3821315490926333</v>
+        <v>0.3987794767450262</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.0124745349272</v>
+        <v>10.66928654973021</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.02645781696252</v>
+        <v>11.01115646779371</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.67061977662865</v>
+        <v>10.84558441374727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.54383075525369</v>
+        <v>11.77037308799269</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.206936677750158</v>
+        <v>1.162511291850964</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.136858278703851</v>
+        <v>1.094860317876647</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.846369500376178</v>
+        <v>2.005177608003929</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.174891144258371</v>
+        <v>1.270582932469036</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.968174375959919</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.107825465586267</v>
+        <v>7.107825465586274</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8061036104462377</v>
@@ -1449,7 +1449,7 @@
         <v>0.8558108798549701</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.5217170363097789</v>
+        <v>0.5217170363097795</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.588010806083687</v>
+        <v>5.782426680923313</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.260763766111388</v>
+        <v>7.073234437127382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.060840376358335</v>
+        <v>7.204488867759569</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.572264599718442</v>
+        <v>5.514126059553003</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5755110769234731</v>
+        <v>0.5933970436061536</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5555478126417194</v>
+        <v>0.5486260575006845</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.613647976739415</v>
+        <v>0.6291426793522614</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3756001348009965</v>
+        <v>0.3763567760409254</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.949461623966478</v>
+        <v>8.846152796312298</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.71137511201645</v>
+        <v>10.77404515415018</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.58793375226928</v>
+        <v>10.83414815964805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.718303692462657</v>
+        <v>8.719845025595385</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.093725343462644</v>
+        <v>1.060371148844281</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9494828405171061</v>
+        <v>0.9755451419288335</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.087375836610933</v>
+        <v>1.100172878021533</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6868643754256517</v>
+        <v>0.6799054386940317</v>
       </c>
     </row>
     <row r="31">
